--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.175801</v>
+        <v>0.3964753333333333</v>
       </c>
       <c r="H2">
-        <v>0.527403</v>
+        <v>1.189426</v>
       </c>
       <c r="I2">
-        <v>0.00093377591663915</v>
+        <v>0.001514000362023254</v>
       </c>
       <c r="J2">
-        <v>0.0009337818593417045</v>
+        <v>0.001515906800666415</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.175801</v>
+        <v>0.3964753333333333</v>
       </c>
       <c r="N2">
-        <v>0.527403</v>
+        <v>1.189426</v>
       </c>
       <c r="O2">
-        <v>0.00093377591663915</v>
+        <v>0.001514000362023254</v>
       </c>
       <c r="P2">
-        <v>0.0009337818593417045</v>
+        <v>0.001515906800666415</v>
       </c>
       <c r="Q2">
-        <v>0.03090599160099999</v>
+        <v>0.1571926899417778</v>
       </c>
       <c r="R2">
-        <v>0.2781539244089999</v>
+        <v>1.414734209476</v>
       </c>
       <c r="S2">
-        <v>8.719374624952847E-07</v>
+        <v>2.292197096206545E-06</v>
       </c>
       <c r="T2">
-        <v>8.719485608356509E-07</v>
+        <v>2.297973428306687E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.3964753333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.189426</v>
+      </c>
+      <c r="I3">
+        <v>0.001514000362023254</v>
+      </c>
+      <c r="J3">
+        <v>0.001515906800666415</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>0.175801</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>0.527403</v>
       </c>
-      <c r="I3">
-        <v>0.00093377591663915</v>
-      </c>
-      <c r="J3">
-        <v>0.0009337818593417045</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>121.9683686666667</v>
-      </c>
-      <c r="N3">
-        <v>365.905106</v>
-      </c>
       <c r="O3">
-        <v>0.6478411684387373</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="P3">
-        <v>0.6478452914058198</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="Q3">
-        <v>21.44216117996867</v>
+        <v>0.06970076007533332</v>
       </c>
       <c r="R3">
-        <v>192.979450619718</v>
+        <v>0.627306840678</v>
       </c>
       <c r="S3">
-        <v>0.0006049384808954599</v>
+        <v>1.016382376987404E-06</v>
       </c>
       <c r="T3">
-        <v>0.0006049461807746948</v>
+        <v>1.018943658545577E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.175801</v>
+        <v>0.3964753333333333</v>
       </c>
       <c r="H4">
-        <v>0.527403</v>
+        <v>1.189426</v>
       </c>
       <c r="I4">
-        <v>0.00093377591663915</v>
+        <v>0.001514000362023254</v>
       </c>
       <c r="J4">
-        <v>0.0009337818593417045</v>
+        <v>0.001515906800666415</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0035945</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="N4">
-        <v>0.007189</v>
+        <v>439.814216</v>
       </c>
       <c r="O4">
-        <v>1.909236882816039E-05</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="P4">
-        <v>1.272832689007744E-05</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="Q4">
-        <v>0.0006319166945</v>
+        <v>58.12516263111289</v>
       </c>
       <c r="R4">
-        <v>0.003791500167</v>
+        <v>523.1264636800161</v>
       </c>
       <c r="S4">
-        <v>1.78279942033282E-08</v>
+        <v>0.0008475860362776314</v>
       </c>
       <c r="T4">
-        <v>1.188548074972553E-08</v>
+        <v>0.0008497219513946537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,123 +708,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.175801</v>
+        <v>0.3964753333333333</v>
       </c>
       <c r="H5">
-        <v>0.527403</v>
+        <v>1.189426</v>
       </c>
       <c r="I5">
-        <v>0.00093377591663915</v>
+        <v>0.001514000362023254</v>
       </c>
       <c r="J5">
-        <v>0.0009337818593417045</v>
+        <v>0.001515906800666415</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>66.12117366666666</v>
+        <v>0.988011</v>
       </c>
       <c r="N5">
-        <v>198.363521</v>
+        <v>1.976022</v>
       </c>
       <c r="O5">
-        <v>0.3512059632757953</v>
+        <v>0.003772867782484048</v>
       </c>
       <c r="P5">
-        <v>0.3512081984079485</v>
+        <v>0.002518412400659184</v>
       </c>
       <c r="Q5">
-        <v>11.62416845177366</v>
+        <v>0.391721990562</v>
       </c>
       <c r="R5">
-        <v>104.617516065963</v>
+        <v>2.350331943372</v>
       </c>
       <c r="S5">
-        <v>0.0003279476702869914</v>
+        <v>5.712123188546721E-06</v>
       </c>
       <c r="T5">
-        <v>0.0003279518445254244</v>
+        <v>3.81767848504189E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3964753333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.189426</v>
+      </c>
+      <c r="I6">
+        <v>0.001514000362023254</v>
+      </c>
+      <c r="J6">
+        <v>0.001515906800666415</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>121.9683686666667</v>
-      </c>
-      <c r="H6">
-        <v>365.905106</v>
-      </c>
-      <c r="I6">
-        <v>0.6478411684387373</v>
-      </c>
-      <c r="J6">
-        <v>0.6478452914058198</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.175801</v>
+        <v>113.7076546666667</v>
       </c>
       <c r="N6">
-        <v>0.527403</v>
+        <v>341.122964</v>
       </c>
       <c r="O6">
-        <v>0.00093377591663915</v>
+        <v>0.4342096868493252</v>
       </c>
       <c r="P6">
-        <v>0.0009337818593417045</v>
+        <v>0.434756446379249</v>
       </c>
       <c r="Q6">
-        <v>21.44216117996867</v>
+        <v>45.08228028651823</v>
       </c>
       <c r="R6">
-        <v>192.979450619718</v>
+        <v>405.7405225786641</v>
       </c>
       <c r="S6">
-        <v>0.0006049384808954599</v>
+        <v>0.0006573936230838822</v>
       </c>
       <c r="T6">
-        <v>0.0006049461807746948</v>
+        <v>0.0006590502536998673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>121.9683686666667</v>
+        <v>0.175801</v>
       </c>
       <c r="H7">
-        <v>365.905106</v>
+        <v>0.527403</v>
       </c>
       <c r="I7">
-        <v>0.6478411684387373</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="J7">
-        <v>0.6478452914058198</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>121.9683686666667</v>
+        <v>0.3964753333333333</v>
       </c>
       <c r="N7">
-        <v>365.905106</v>
+        <v>1.189426</v>
       </c>
       <c r="O7">
-        <v>0.6478411684387373</v>
+        <v>0.001514000362023254</v>
       </c>
       <c r="P7">
-        <v>0.6478452914058198</v>
+        <v>0.001515906800666415</v>
       </c>
       <c r="Q7">
-        <v>14876.28295520792</v>
+        <v>0.06970076007533332</v>
       </c>
       <c r="R7">
-        <v>133886.5465968713</v>
+        <v>0.627306840678</v>
       </c>
       <c r="S7">
-        <v>0.4196981795240684</v>
+        <v>1.016382376987404E-06</v>
       </c>
       <c r="T7">
-        <v>0.4197035215966916</v>
+        <v>1.018943658545577E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>121.9683686666667</v>
+        <v>0.175801</v>
       </c>
       <c r="H8">
-        <v>365.905106</v>
+        <v>0.527403</v>
       </c>
       <c r="I8">
-        <v>0.6478411684387373</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="J8">
-        <v>0.6478452914058198</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.0035945</v>
+        <v>0.175801</v>
       </c>
       <c r="N8">
-        <v>0.007189</v>
+        <v>0.527403</v>
       </c>
       <c r="O8">
-        <v>1.909236882816039E-05</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="P8">
-        <v>1.272832689007744E-05</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="Q8">
-        <v>0.4384153011723333</v>
+        <v>0.03090599160099999</v>
       </c>
       <c r="R8">
-        <v>2.630491807034</v>
+        <v>0.2781539244089999</v>
       </c>
       <c r="S8">
-        <v>1.236882252989875E-05</v>
+        <v>4.506737827912689E-07</v>
       </c>
       <c r="T8">
-        <v>8.245986643210754E-06</v>
+        <v>4.518094798229673E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>121.9683686666667</v>
+        <v>0.175801</v>
       </c>
       <c r="H9">
-        <v>365.905106</v>
+        <v>0.527403</v>
       </c>
       <c r="I9">
-        <v>0.6478411684387373</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="J9">
-        <v>0.6478452914058198</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,122 +989,122 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.12117366666666</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="N9">
-        <v>198.363521</v>
+        <v>439.814216</v>
       </c>
       <c r="O9">
-        <v>0.3512059632757953</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="P9">
-        <v>0.3512081984079485</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="Q9">
-        <v>8064.691686448692</v>
+        <v>25.77325966233866</v>
       </c>
       <c r="R9">
-        <v>72582.22517803824</v>
+        <v>231.959336961048</v>
       </c>
       <c r="S9">
-        <v>0.2275256816112435</v>
+        <v>0.0003758278516620047</v>
       </c>
       <c r="T9">
-        <v>0.2275285776417104</v>
+        <v>0.0003767749370968807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.175801</v>
+      </c>
+      <c r="H10">
+        <v>0.527403</v>
+      </c>
+      <c r="I10">
+        <v>0.0006713224134432493</v>
+      </c>
+      <c r="J10">
+        <v>0.0006721677467886772</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="G10">
-        <v>0.0035945</v>
-      </c>
-      <c r="H10">
-        <v>0.007189</v>
-      </c>
-      <c r="I10">
-        <v>1.909236882816039E-05</v>
-      </c>
-      <c r="J10">
-        <v>1.272832689007744E-05</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.175801</v>
+        <v>0.988011</v>
       </c>
       <c r="N10">
-        <v>0.527403</v>
+        <v>1.976022</v>
       </c>
       <c r="O10">
-        <v>0.00093377591663915</v>
+        <v>0.003772867782484048</v>
       </c>
       <c r="P10">
-        <v>0.0009337818593417045</v>
+        <v>0.002518412400659184</v>
       </c>
       <c r="Q10">
-        <v>0.0006319166945</v>
+        <v>0.173693321811</v>
       </c>
       <c r="R10">
-        <v>0.003791500167</v>
+        <v>1.042159930866</v>
       </c>
       <c r="S10">
-        <v>1.78279942033282E-08</v>
+        <v>2.532810705339471E-06</v>
       </c>
       <c r="T10">
-        <v>1.188548074972553E-08</v>
+        <v>1.692795588835747E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.0035945</v>
+        <v>0.175801</v>
       </c>
       <c r="H11">
-        <v>0.007189</v>
+        <v>0.527403</v>
       </c>
       <c r="I11">
-        <v>1.909236882816039E-05</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="J11">
-        <v>1.272832689007744E-05</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.9683686666667</v>
+        <v>113.7076546666667</v>
       </c>
       <c r="N11">
-        <v>365.905106</v>
+        <v>341.122964</v>
       </c>
       <c r="O11">
-        <v>0.6478411684387373</v>
+        <v>0.4342096868493252</v>
       </c>
       <c r="P11">
-        <v>0.6478452914058198</v>
+        <v>0.434756446379249</v>
       </c>
       <c r="Q11">
-        <v>0.4384153011723333</v>
+        <v>19.98991939805467</v>
       </c>
       <c r="R11">
-        <v>2.630491807034</v>
+        <v>179.909274582492</v>
       </c>
       <c r="S11">
-        <v>1.236882252989875E-05</v>
+        <v>0.0002914946949161265</v>
       </c>
       <c r="T11">
-        <v>8.245986643210754E-06</v>
+        <v>0.0002922292609645922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0035945</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="H12">
-        <v>0.007189</v>
+        <v>439.814216</v>
       </c>
       <c r="I12">
-        <v>1.909236882816039E-05</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="J12">
-        <v>1.272832689007744E-05</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0035945</v>
+        <v>0.3964753333333333</v>
       </c>
       <c r="N12">
-        <v>0.007189</v>
+        <v>1.189426</v>
       </c>
       <c r="O12">
-        <v>1.909236882816039E-05</v>
+        <v>0.001514000362023254</v>
       </c>
       <c r="P12">
-        <v>1.272832689007744E-05</v>
+        <v>0.001515906800666415</v>
       </c>
       <c r="Q12">
-        <v>1.292043025E-05</v>
+        <v>58.12516263111289</v>
       </c>
       <c r="R12">
-        <v>5.1681721E-05</v>
+        <v>523.1264636800161</v>
       </c>
       <c r="S12">
-        <v>3.645185474705105E-10</v>
+        <v>0.0008475860362776314</v>
       </c>
       <c r="T12">
-        <v>1.620103054206685E-10</v>
+        <v>0.0008497219513946537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,75 +1204,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0035945</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="H13">
-        <v>0.007189</v>
+        <v>439.814216</v>
       </c>
       <c r="I13">
-        <v>1.909236882816039E-05</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="J13">
-        <v>1.272832689007744E-05</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>66.12117366666666</v>
+        <v>0.175801</v>
       </c>
       <c r="N13">
-        <v>198.363521</v>
+        <v>0.527403</v>
       </c>
       <c r="O13">
-        <v>0.3512059632757953</v>
+        <v>0.0006713224134432493</v>
       </c>
       <c r="P13">
-        <v>0.3512081984079485</v>
+        <v>0.0006721677467886772</v>
       </c>
       <c r="Q13">
-        <v>0.2376725587448333</v>
+        <v>25.77325966233866</v>
       </c>
       <c r="R13">
-        <v>1.426035352469</v>
+        <v>231.959336961048</v>
       </c>
       <c r="S13">
-        <v>6.705353785510836E-06</v>
+        <v>0.0003758278516620047</v>
       </c>
       <c r="T13">
-        <v>4.470292755811545E-06</v>
+        <v>0.0003767749370968807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1278,60 +1281,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>66.12117366666666</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="H14">
-        <v>198.363521</v>
+        <v>439.814216</v>
       </c>
       <c r="I14">
-        <v>0.3512059632757953</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="J14">
-        <v>0.3512081984079485</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.175801</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="N14">
-        <v>0.527403</v>
+        <v>439.814216</v>
       </c>
       <c r="O14">
-        <v>0.00093377591663915</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="P14">
-        <v>0.0009337818593417045</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="Q14">
-        <v>11.62416845177366</v>
+        <v>21492.94939952163</v>
       </c>
       <c r="R14">
-        <v>104.617516065963</v>
+        <v>193436.5445956946</v>
       </c>
       <c r="S14">
-        <v>0.0003279476702869914</v>
+        <v>0.3134120054866751</v>
       </c>
       <c r="T14">
-        <v>0.0003279518445254244</v>
+        <v>0.314201803113964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1340,60 +1343,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>66.12117366666666</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="H15">
-        <v>198.363521</v>
+        <v>439.814216</v>
       </c>
       <c r="I15">
-        <v>0.3512059632757953</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="J15">
-        <v>0.3512081984079485</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>121.9683686666667</v>
+        <v>0.988011</v>
       </c>
       <c r="N15">
-        <v>365.905106</v>
+        <v>1.976022</v>
       </c>
       <c r="O15">
-        <v>0.6478411684387373</v>
+        <v>0.003772867782484048</v>
       </c>
       <c r="P15">
-        <v>0.6478452914058198</v>
+        <v>0.002518412400659184</v>
       </c>
       <c r="Q15">
-        <v>8064.691686448692</v>
+        <v>144.847094454792</v>
       </c>
       <c r="R15">
-        <v>72582.22517803824</v>
+        <v>869.082566728752</v>
       </c>
       <c r="S15">
-        <v>0.2275256816112435</v>
+        <v>0.002112172578929749</v>
       </c>
       <c r="T15">
-        <v>0.2275285776417104</v>
+        <v>0.001411663499737492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1402,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>66.12117366666666</v>
+        <v>146.6047386666667</v>
       </c>
       <c r="H16">
-        <v>198.363521</v>
+        <v>439.814216</v>
       </c>
       <c r="I16">
-        <v>0.3512059632757953</v>
+        <v>0.5598321225927243</v>
       </c>
       <c r="J16">
-        <v>0.3512081984079485</v>
+        <v>0.5605370666726367</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0035945</v>
+        <v>113.7076546666667</v>
       </c>
       <c r="N16">
-        <v>0.007189</v>
+        <v>341.122964</v>
       </c>
       <c r="O16">
-        <v>1.909236882816039E-05</v>
+        <v>0.4342096868493252</v>
       </c>
       <c r="P16">
-        <v>1.272832689007744E-05</v>
+        <v>0.434756446379249</v>
       </c>
       <c r="Q16">
-        <v>0.2376725587448333</v>
+        <v>16670.08099680625</v>
       </c>
       <c r="R16">
-        <v>1.426035352469</v>
+        <v>150030.7289712562</v>
       </c>
       <c r="S16">
-        <v>6.705353785510836E-06</v>
+        <v>0.2430845306391799</v>
       </c>
       <c r="T16">
-        <v>4.470292755811545E-06</v>
+        <v>0.2436971031704437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.988011</v>
+      </c>
+      <c r="H17">
+        <v>1.976022</v>
+      </c>
+      <c r="I17">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="J17">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.3964753333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.189426</v>
+      </c>
+      <c r="O17">
+        <v>0.001514000362023254</v>
+      </c>
+      <c r="P17">
+        <v>0.001515906800666415</v>
+      </c>
+      <c r="Q17">
+        <v>0.391721990562</v>
+      </c>
+      <c r="R17">
+        <v>2.350331943372</v>
+      </c>
+      <c r="S17">
+        <v>5.712123188546721E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.81767848504189E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.988011</v>
+      </c>
+      <c r="H18">
+        <v>1.976022</v>
+      </c>
+      <c r="I18">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="J18">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.175801</v>
+      </c>
+      <c r="N18">
+        <v>0.527403</v>
+      </c>
+      <c r="O18">
+        <v>0.0006713224134432493</v>
+      </c>
+      <c r="P18">
+        <v>0.0006721677467886772</v>
+      </c>
+      <c r="Q18">
+        <v>0.173693321811</v>
+      </c>
+      <c r="R18">
+        <v>1.042159930866</v>
+      </c>
+      <c r="S18">
+        <v>2.532810705339471E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.692795588835747E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.988011</v>
+      </c>
+      <c r="H19">
+        <v>1.976022</v>
+      </c>
+      <c r="I19">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="J19">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>146.6047386666667</v>
+      </c>
+      <c r="N19">
+        <v>439.814216</v>
+      </c>
+      <c r="O19">
+        <v>0.5598321225927243</v>
+      </c>
+      <c r="P19">
+        <v>0.5605370666726367</v>
+      </c>
+      <c r="Q19">
+        <v>144.847094454792</v>
+      </c>
+      <c r="R19">
+        <v>869.082566728752</v>
+      </c>
+      <c r="S19">
+        <v>0.002112172578929749</v>
+      </c>
+      <c r="T19">
+        <v>0.001411663499737492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.988011</v>
+      </c>
+      <c r="H20">
+        <v>1.976022</v>
+      </c>
+      <c r="I20">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="J20">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.988011</v>
+      </c>
+      <c r="N20">
+        <v>1.976022</v>
+      </c>
+      <c r="O20">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="P20">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="Q20">
+        <v>0.976165736121</v>
+      </c>
+      <c r="R20">
+        <v>3.904662944484</v>
+      </c>
+      <c r="S20">
+        <v>1.42345313041061E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.342401019793955E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.988011</v>
+      </c>
+      <c r="H21">
+        <v>1.976022</v>
+      </c>
+      <c r="I21">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="J21">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="N21">
+        <v>341.122964</v>
+      </c>
+      <c r="O21">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="P21">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="Q21">
+        <v>112.344413594868</v>
+      </c>
+      <c r="R21">
+        <v>674.066481569208</v>
+      </c>
+      <c r="S21">
+        <v>0.001638215738356307</v>
+      </c>
+      <c r="T21">
+        <v>0.00109489602582802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="H22">
+        <v>341.122964</v>
+      </c>
+      <c r="I22">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="J22">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3964753333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.189426</v>
+      </c>
+      <c r="O22">
+        <v>0.001514000362023254</v>
+      </c>
+      <c r="P22">
+        <v>0.001515906800666415</v>
+      </c>
+      <c r="Q22">
+        <v>45.08228028651823</v>
+      </c>
+      <c r="R22">
+        <v>405.7405225786641</v>
+      </c>
+      <c r="S22">
+        <v>0.0006573936230838822</v>
+      </c>
+      <c r="T22">
+        <v>0.0006590502536998673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="H23">
+        <v>341.122964</v>
+      </c>
+      <c r="I23">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="J23">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.175801</v>
+      </c>
+      <c r="N23">
+        <v>0.527403</v>
+      </c>
+      <c r="O23">
+        <v>0.0006713224134432493</v>
+      </c>
+      <c r="P23">
+        <v>0.0006721677467886772</v>
+      </c>
+      <c r="Q23">
+        <v>19.98991939805467</v>
+      </c>
+      <c r="R23">
+        <v>179.909274582492</v>
+      </c>
+      <c r="S23">
+        <v>0.0002914946949161265</v>
+      </c>
+      <c r="T23">
+        <v>0.0002922292609645922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="H24">
+        <v>341.122964</v>
+      </c>
+      <c r="I24">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="J24">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>146.6047386666667</v>
+      </c>
+      <c r="N24">
+        <v>439.814216</v>
+      </c>
+      <c r="O24">
+        <v>0.5598321225927243</v>
+      </c>
+      <c r="P24">
+        <v>0.5605370666726367</v>
+      </c>
+      <c r="Q24">
+        <v>16670.08099680625</v>
+      </c>
+      <c r="R24">
+        <v>150030.7289712562</v>
+      </c>
+      <c r="S24">
+        <v>0.2430845306391799</v>
+      </c>
+      <c r="T24">
+        <v>0.2436971031704437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>66.12117366666666</v>
-      </c>
-      <c r="H17">
-        <v>198.363521</v>
-      </c>
-      <c r="I17">
-        <v>0.3512059632757953</v>
-      </c>
-      <c r="J17">
-        <v>0.3512081984079485</v>
-      </c>
-      <c r="K17">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="H25">
+        <v>341.122964</v>
+      </c>
+      <c r="I25">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="J25">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.988011</v>
+      </c>
+      <c r="N25">
+        <v>1.976022</v>
+      </c>
+      <c r="O25">
+        <v>0.003772867782484048</v>
+      </c>
+      <c r="P25">
+        <v>0.002518412400659184</v>
+      </c>
+      <c r="Q25">
+        <v>112.344413594868</v>
+      </c>
+      <c r="R25">
+        <v>674.066481569208</v>
+      </c>
+      <c r="S25">
+        <v>0.001638215738356307</v>
+      </c>
+      <c r="T25">
+        <v>0.00109489602582802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>66.12117366666666</v>
-      </c>
-      <c r="N17">
-        <v>198.363521</v>
-      </c>
-      <c r="O17">
-        <v>0.3512059632757953</v>
-      </c>
-      <c r="P17">
-        <v>0.3512081984079485</v>
-      </c>
-      <c r="Q17">
-        <v>4372.009607057493</v>
-      </c>
-      <c r="R17">
-        <v>39348.08646351744</v>
-      </c>
-      <c r="S17">
-        <v>0.1233456286404793</v>
-      </c>
-      <c r="T17">
-        <v>0.1233471986289569</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="H26">
+        <v>341.122964</v>
+      </c>
+      <c r="I26">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="J26">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>113.7076546666667</v>
+      </c>
+      <c r="N26">
+        <v>341.122964</v>
+      </c>
+      <c r="O26">
+        <v>0.4342096868493252</v>
+      </c>
+      <c r="P26">
+        <v>0.434756446379249</v>
+      </c>
+      <c r="Q26">
+        <v>12929.43072979392</v>
+      </c>
+      <c r="R26">
+        <v>116364.8765681453</v>
+      </c>
+      <c r="S26">
+        <v>0.188538052153789</v>
+      </c>
+      <c r="T26">
+        <v>0.1890131676683129</v>
       </c>
     </row>
   </sheetData>
